--- a/07.xlsx
+++ b/07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E749230-7A47-41B1-AE0D-E0969D10DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD13E6D-59C3-4839-9EB3-9CA70CCB6013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8063" yWindow="4470" windowWidth="28185" windowHeight="15030" xr2:uid="{C639BABD-536E-422D-8343-BEC1CC7F530C}"/>
+    <workbookView xWindow="5542" yWindow="2310" windowWidth="28186" windowHeight="15030" xr2:uid="{C639BABD-536E-422D-8343-BEC1CC7F530C}"/>
   </bookViews>
   <sheets>
     <sheet name="独立性の検定" sheetId="1" r:id="rId1"/>
@@ -65,34 +65,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
   <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大学</t>
-    <rPh sb="0" eb="2">
-      <t>ダイガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大学院</t>
-    <rPh sb="0" eb="3">
-      <t>ダイガクイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
@@ -113,19 +85,6 @@
     <t>P値</t>
     <rPh sb="1" eb="2">
       <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>性別と学歴の関係</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -206,19 +165,6 @@
     <t>想定</t>
     <rPh sb="0" eb="2">
       <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>性別と学歴の関係（サンプルサイズ）</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -298,6 +244,66 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>関西</t>
+    <rPh sb="0" eb="2">
+      <t>カンサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関東</t>
+    <rPh sb="0" eb="2">
+      <t>カントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うどん派</t>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そば派</t>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出身地域と好みの麺類の関係</t>
+    <rPh sb="0" eb="2">
+      <t>シュッシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メンルイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出身と麺類の関係（サンプルサイズ）</t>
+    <rPh sb="0" eb="2">
+      <t>シュッシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メンルイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +311,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -490,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,16 +551,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -614,7 +620,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,10 +969,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="3" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -971,59 +983,59 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D4" s="11">
         <f>SUM(B4:C4)</f>
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D5:D6" si="0">SUM(B5:C5)</f>
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="8">
         <f>SUM(B4:B5)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -1032,21 +1044,21 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A8" s="13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="11">
@@ -1056,7 +1068,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9"/>
       <c r="D10" s="11">
@@ -1066,7 +1078,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A11" s="13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="8">
         <f>SUM(B9:B10)</f>
@@ -1083,7 +1095,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A13" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" s="41"/>
     </row>
@@ -1102,10 +1114,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="3" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1113,59 +1128,59 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D4" s="11">
         <f>SUM(B4:C4)</f>
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D5:D6" si="0">SUM(B5:C5)</f>
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="8">
         <f>SUM(B4:B5)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -1174,60 +1189,60 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A8" s="13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" cm="1">
         <f t="array" ref="B9:C10">B6:C6*D4:D5/D6</f>
-        <v>88</v>
+        <v>53.56</v>
       </c>
       <c r="C9">
-        <v>88</v>
+        <v>50.44</v>
       </c>
       <c r="D9" s="11">
         <f>SUM(B9:C9)</f>
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9">
-        <v>12</v>
+        <v>49.44</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>46.56</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" ref="D10:D11" si="1">SUM(B10:C10)</f>
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A11" s="13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="8">
         <f>SUM(B9:B10)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(C9:C10)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="1"/>
@@ -1236,11 +1251,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A13" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" s="41">
         <f>_xlfn.CHISQ.TEST(B4:C5,B9:C10)</f>
-        <v>2.9557451560151691E-2</v>
+        <v>3.5118997740997339E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1259,12 +1274,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1272,59 +1288,59 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D4" s="11">
         <f>SUM(B4:C4)</f>
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D5:D6" si="0">SUM(B5:C5)</f>
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="8">
         <f>SUM(B4:B5)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -1333,60 +1349,60 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A8" s="13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" cm="1">
         <f t="array" ref="B9:C10">B6:C6*D4:D5/D6</f>
-        <v>88</v>
+        <v>53.56</v>
       </c>
       <c r="C9">
-        <v>88</v>
+        <v>50.44</v>
       </c>
       <c r="D9" s="11">
         <f>SUM(B9:C9)</f>
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9">
-        <v>12</v>
+        <v>49.44</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>46.56</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" ref="D10:D11" si="1">SUM(B10:C10)</f>
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A11" s="13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="8">
         <f>SUM(B9:B10)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(C9:C10)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="1"/>
@@ -1395,21 +1411,21 @@
     </row>
     <row r="13" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A13" s="16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="1"/>
@@ -1420,7 +1436,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="1"/>
@@ -1431,7 +1447,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A16" s="16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" s="24">
         <f>SUM(B14:B15)</f>
@@ -1448,7 +1464,7 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C18" s="29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="41"/>
     </row>
@@ -1468,12 +1484,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1481,59 +1499,59 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D4" s="11">
         <f>SUM(B4:C4)</f>
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D5:D6" si="0">SUM(B5:C5)</f>
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="8">
         <f>SUM(B4:B5)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -1542,60 +1560,60 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" cm="1">
         <f t="array" ref="B9:C10">B6:C6*D4:D5/D6</f>
-        <v>88</v>
+        <v>53.56</v>
       </c>
       <c r="C9">
-        <v>88</v>
+        <v>50.44</v>
       </c>
       <c r="D9" s="11">
         <f>SUM(B9:C9)</f>
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9">
-        <v>12</v>
+        <v>49.44</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>46.56</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" ref="D10:D11" si="1">SUM(B10:C10)</f>
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="8">
         <f>SUM(B9:B10)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(C9:C10)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="1"/>
@@ -1604,80 +1622,80 @@
     </row>
     <row r="13" spans="1:6" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A13" s="16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B14" s="22" cm="1">
         <f t="array" ref="B14:C15">(B4:C5-B9:C10)^2/B9:C10</f>
-        <v>0.28409090909090912</v>
+        <v>1.0334876773711719</v>
       </c>
       <c r="C14" s="1">
-        <v>0.28409090909090912</v>
+        <v>1.0974147501982547</v>
       </c>
       <c r="D14" s="23">
         <f>SUM(B14:C14)</f>
-        <v>0.56818181818181823</v>
+        <v>2.1309024275694268</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B15" s="22">
-        <v>2.0833333333333335</v>
+        <v>1.1196116504854363</v>
       </c>
       <c r="C15" s="1">
-        <v>2.0833333333333335</v>
+        <v>1.1888659793814425</v>
       </c>
       <c r="D15" s="23">
         <f t="shared" ref="D15:D16" si="2">SUM(B15:C15)</f>
-        <v>4.166666666666667</v>
+        <v>2.3084776298668785</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A16" s="16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" s="24">
         <f>SUM(B14:B15)</f>
-        <v>2.3674242424242427</v>
+        <v>2.1530993278566082</v>
       </c>
       <c r="C16" s="25">
         <f>SUM(C14:C15)</f>
-        <v>2.3674242424242427</v>
+        <v>2.2862807295796972</v>
       </c>
       <c r="D16" s="26">
         <f t="shared" si="2"/>
-        <v>4.7348484848484853</v>
+        <v>4.4393800574363054</v>
       </c>
       <c r="F16" s="1" cm="1">
         <f t="array" ref="F16">SUM((B4:C5-B9:C10)^2/B9:C10)</f>
-        <v>4.7348484848484853</v>
+        <v>4.4393800574363054</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C18" s="29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="41">
         <f>_xlfn.CHISQ.DIST.RT(D16,1)</f>
-        <v>2.9557451560151691E-2</v>
+        <v>3.5118997740997339E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1701,7 +1719,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1709,51 +1727,51 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="32">
         <f>SUM(B4:C4)</f>
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="32">
-        <f t="shared" ref="D5:D6" si="0">SUM(B5:C5)</f>
-        <v>0.13</v>
+        <f>SUM(B5:C5)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="30">
         <f>SUM(B4:B5)</f>
@@ -1764,27 +1782,27 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D6" si="0">SUM(B6:C6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A8" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="32">
@@ -1794,7 +1812,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9"/>
       <c r="D10" s="32">
@@ -1804,7 +1822,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A11" s="13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="30">
         <f>SUM(B9:B10)</f>
@@ -1821,21 +1839,21 @@
     </row>
     <row r="13" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A13" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="1"/>
@@ -1846,7 +1864,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="1"/>
@@ -1857,7 +1875,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A16" s="16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" s="19">
         <f>SUM(B14:B15)</f>
@@ -1874,13 +1892,13 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C18" s="35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18" s="36"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C19" s="34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0.01</v>
@@ -1888,7 +1906,7 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C20" s="34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>0.9</v>
@@ -1896,18 +1914,18 @@
     </row>
     <row r="21" spans="3:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="C21" s="34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="C22" s="37" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D22" s="38"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C23" s="29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D23" s="39"/>
     </row>
@@ -1920,7 +1938,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB75337A-7500-435A-A8A7-40F087820464}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1933,7 +1951,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1941,51 +1959,51 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="32">
         <f>SUM(B4:C4)</f>
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="32">
         <f t="shared" ref="D5:D6" si="0">SUM(B5:C5)</f>
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="30">
         <f>SUM(B4:B5)</f>
@@ -2002,52 +2020,52 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A8" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" cm="1">
         <f t="array" ref="B9:C10">B6:C6*D4:D5/D6</f>
-        <v>0.435</v>
+        <v>0.25</v>
       </c>
       <c r="C9">
-        <v>0.435</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="32">
         <f>SUM(B9:C9)</f>
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9">
-        <v>6.5000000000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
-        <v>6.5000000000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="32">
         <f t="shared" ref="D10:D11" si="1">SUM(B10:C10)</f>
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A11" s="13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="30">
         <f>SUM(B9:B10)</f>
@@ -2064,117 +2082,118 @@
     </row>
     <row r="13" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A13" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B14" s="22" cm="1">
         <f t="array" ref="B14:C15">(B4:C5-B9:C10)^2/B9:C10</f>
-        <v>2.8160919540229845E-3</v>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>2.8160919540229845E-3</v>
-      </c>
-      <c r="D14" s="18">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="D14" s="23">
         <f>SUM(B14:C14)</f>
-        <v>5.632183908045969E-3</v>
+        <v>1.999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B15" s="22">
-        <v>1.8846153846153849E-2</v>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>1.8846153846153849E-2</v>
-      </c>
-      <c r="D15" s="18">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="D15" s="23">
         <f t="shared" ref="D15:D16" si="2">SUM(B15:C15)</f>
-        <v>3.7692307692307699E-2</v>
+        <v>1.999999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="19">
+        <v>0</v>
+      </c>
+      <c r="B16" s="24">
         <f>SUM(B14:B15)</f>
-        <v>2.1662245800176835E-2</v>
-      </c>
-      <c r="C16" s="20">
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="C16" s="25">
         <f>SUM(C14:C15)</f>
-        <v>2.1662245800176835E-2</v>
-      </c>
-      <c r="D16" s="21">
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="D16" s="26">
         <f t="shared" si="2"/>
-        <v>4.3324491600353669E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.7">
+        <v>3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.7">
       <c r="C18" s="35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18" s="36">
         <f>SQRT(D16/D11)</f>
-        <v>0.20814536170751841</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.7">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.7">
       <c r="C19" s="34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.7">
       <c r="C20" s="34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
+    <row r="21" spans="3:7" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="C21" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
         <f>_xlfn.NORM.S.INV(1-D19/2)</f>
         <v>1.9599639845400536</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
+    <row r="22" spans="3:7" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="C22" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="38">
+        <v>13</v>
+      </c>
+      <c r="D22" s="42">
         <f>_xlfn.NORM.S.INV(D20)</f>
         <v>0.84162123357291474</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.7">
       <c r="C23" s="29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D23" s="39">
         <f>ROUNDUP((D21+D22)^2/D16,0)</f>
-        <v>182</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/07.xlsx
+++ b/07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD13E6D-59C3-4839-9EB3-9CA70CCB6013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7DA44A-3231-44B8-B4F1-FFC0EC334684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5542" yWindow="2310" windowWidth="28186" windowHeight="15030" xr2:uid="{C639BABD-536E-422D-8343-BEC1CC7F530C}"/>
+    <workbookView xWindow="7748" yWindow="1350" windowWidth="28185" windowHeight="15030" xr2:uid="{C639BABD-536E-422D-8343-BEC1CC7F530C}"/>
   </bookViews>
   <sheets>
     <sheet name="独立性の検定" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>α</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>β</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -302,6 +298,10 @@
     <rPh sb="6" eb="8">
       <t>カンケイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-β</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -975,7 +975,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -986,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9">
         <v>61</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9">
         <v>42</v>
@@ -1047,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>0</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="11">
@@ -1068,7 +1068,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9"/>
       <c r="D10" s="11">
@@ -1120,7 +1120,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1131,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>0</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9">
         <v>61</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9">
         <v>42</v>
@@ -1192,10 +1192,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" cm="1">
         <f t="array" ref="B9:C10">B6:C6*D4:D5/D6</f>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9">
         <v>49.44</v>
@@ -1280,7 +1280,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1291,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>0</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9">
         <v>61</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9">
         <v>42</v>
@@ -1352,10 +1352,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>0</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" cm="1">
         <f t="array" ref="B9:C10">B6:C6*D4:D5/D6</f>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9">
         <v>49.44</v>
@@ -1414,10 +1414,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>0</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="1"/>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="1"/>
@@ -1491,7 +1491,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1502,10 +1502,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>0</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9">
         <v>61</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9">
         <v>42</v>
@@ -1563,10 +1563,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>0</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" cm="1">
         <f t="array" ref="B9:C10">B6:C6*D4:D5/D6</f>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9">
         <v>49.44</v>
@@ -1625,10 +1625,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>0</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="22" cm="1">
         <f t="array" ref="B14:C15">(B4:C5-B9:C10)^2/B9:C10</f>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="22">
         <v>1.1196116504854363</v>
@@ -1719,7 +1719,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1727,13 +1727,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9">
         <v>0.3</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9">
         <v>0.2</v>
@@ -1782,19 +1782,19 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="33">
-        <f t="shared" ref="D5:D6" si="0">SUM(B6:C6)</f>
+        <f t="shared" ref="D6" si="0">SUM(B6:C6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A8" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>0</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="32">
@@ -1812,7 +1812,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9"/>
       <c r="D10" s="32">
@@ -1839,13 +1839,13 @@
     </row>
     <row r="13" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A13" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>0</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="1"/>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="1"/>
@@ -1901,25 +1901,25 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C20" s="34" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="C21" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="C22" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="38"/>
     </row>
@@ -1951,7 +1951,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9">
         <v>0.3</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9">
         <v>0.2</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A8" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>0</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" cm="1">
         <f t="array" ref="B9:C10">B6:C6*D4:D5/D6</f>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9">
         <v>0.25</v>
@@ -2082,13 +2082,13 @@
     </row>
     <row r="13" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A13" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="22" cm="1">
         <f t="array" ref="B14:C15">(B4:C5-B9:C10)^2/B9:C10</f>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="22">
         <v>9.999999999999995E-3</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.7">
       <c r="C20" s="34" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>0.8</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="21" spans="3:7" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="C21" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1">
         <f>_xlfn.NORM.S.INV(1-D19/2)</f>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="22" spans="3:7" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="C22" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="42">
         <f>_xlfn.NORM.S.INV(D20)</f>
